--- a/dat/src/dat1cal.xlsx
+++ b/dat/src/dat1cal.xlsx
@@ -13,6 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +29,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t>I/A</t>
+    <t>电磁铁电流$I_{\rm H}$/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U/V</t>
+    <t>谐振电流$I_{\rm P}$/\upmu A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐振频率$f_0$/GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作电压$U$/V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率计读数/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出频率$f$/MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信源频率$f$/GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐振电流$I$/\upmu A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信源频率$f$/GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检波2电流$I$/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流$I$/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁感应强度$B$/mT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作电流$I$/mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,6 +87,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,11 +130,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -114,39 +173,9 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -161,15 +190,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I/A</c:v>
+                  <c:v>工作电流$I$/mA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -177,14 +206,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -463,7 +490,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A165-4CBE-B007-2C8CC2ACACF4}"/>
+              <c16:uniqueId val="{00000000-3584-4F90-B4FD-D8C59D89D3BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -475,42 +502,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112771312"/>
-        <c:axId val="112772144"/>
+        <c:axId val="1030357423"/>
+        <c:axId val="1030352431"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112771312"/>
+        <c:axId val="1030357423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -521,58 +533,39 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112772144"/>
+        <c:crossAx val="1030352431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112772144"/>
+        <c:axId val="1030352431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -583,24 +576,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112771312"/>
+        <c:crossAx val="1030357423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -615,16 +606,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -634,7 +618,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -642,7 +633,1576 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>输出频率$f$/MHz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9027.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9049.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9078.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3584-4F90-B4FD-D8C59D89D3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030357423"/>
+        <c:axId val="1030352431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030357423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030352431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030352431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9250"/>
+          <c:min val="8950"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030357423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>谐振电流$I$/\upmu A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.2010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8989999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3584-4F90-B4FD-D8C59D89D3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030357423"/>
+        <c:axId val="1030352431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030357423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.2099999999999991"/>
+          <c:min val="8.8000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030352431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030352431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030357423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>检波2电流$I$/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0340000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0389999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0449999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3584-4F90-B4FD-D8C59D89D3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030357423"/>
+        <c:axId val="1030352431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030357423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0500000000000007"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030352431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030352431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030357423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>谐振电流$I_{\rm P}$/\upmu A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.4000000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.679</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3584-4F90-B4FD-D8C59D89D3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030357423"/>
+        <c:axId val="1030352431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030357423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.2999999999999998"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030352431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030352431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030357423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>磁感应强度$B$/mT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.327</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9860000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3584-4F90-B4FD-D8C59D89D3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030357423"/>
+        <c:axId val="1030352431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030357423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030352431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030352431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030357423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Unicode Symbols" panose="05020102010707070707" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -687,6 +2247,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1203,20 +2963,2775 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1499,12 +6014,1272 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1514,10 +7289,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,7 +7634,796 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>8.3529999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="B3">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>7.992</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9027.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="B5">
+        <v>7.7770000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9049.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>7.508</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9078.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="B7">
+        <v>7.149</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>9.2010000000000005</v>
+      </c>
+      <c r="B2" s="2">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>9.1509999999999998</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>9.1029999999999998</v>
+      </c>
+      <c r="B4" s="2">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="B5" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8.9489999999999998</v>
+      </c>
+      <c r="B7" s="2">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8.8989999999999991</v>
+      </c>
+      <c r="B8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8.8550000000000004</v>
+      </c>
+      <c r="B9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B10">
+    <sortCondition descending="1" ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>9.0079999999999991</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>9.0220000000000002</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>9.0229999999999997</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="B7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="B8" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="B9" s="2">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9.0280000000000005</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9.0449999999999999</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="B2">
+        <v>75.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9.0280000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="B3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="B5">
+        <v>75.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.0280000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.421</v>
+      </c>
+      <c r="B6">
+        <v>75.2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.5070000000000001</v>
+      </c>
+      <c r="B7">
+        <v>72.3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="B8">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.0310000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.579</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="B11">
+        <v>41.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.6139999999999999</v>
+      </c>
+      <c r="B12">
+        <v>39.6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="B13">
+        <v>41.3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.679</v>
+      </c>
+      <c r="B14">
+        <v>43.8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.698</v>
+      </c>
+      <c r="B15">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.716</v>
+      </c>
+      <c r="B16">
+        <v>57.8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="B17">
+        <v>72.3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.802</v>
+      </c>
+      <c r="B18">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.0259999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.089</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.255</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="B5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="B6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="B7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="B8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.242</v>
+      </c>
+      <c r="B9">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="B10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="B11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="B12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="B13">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1.502</v>
+      </c>
+      <c r="B14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1.601</v>
+      </c>
+      <c r="B15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="B16">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1.714</v>
+      </c>
+      <c r="B17">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="B18">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1.825</v>
+      </c>
+      <c r="B19">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="B20">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="B21">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2.327</v>
+      </c>
+      <c r="B22">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="B23">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="B24">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="B25">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/dat/src/dat1cal.xlsx
+++ b/dat/src/dat1cal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>电磁铁电流$I_{\rm H}$/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,16 +82,77 @@
     <t>工作电流$I$/mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear forecasted f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="181" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="184" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +163,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -130,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +210,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,7 +1344,7 @@
             <c:numRef>
               <c:f>Sheet4!$A$2:$A$15</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
@@ -7278,7 +7371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7850,152 +7943,384 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="8.88671875" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="K2" s="5"/>
+      <c r="N2" s="2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <f ca="1">FORECAST(N2,OFFSET(A:A,MATCH(N2,B:B,1)-1,0,2), OFFSET(B:B,MATCH(N2,B:B,1)-1,0,2))</f>
+        <v>9.0243473193473207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>9.0079999999999991</v>
       </c>
       <c r="B3" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="K3" s="5"/>
+      <c r="N3" s="2">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" ca="1" si="0">FORECAST(N3,OFFSET(A:A,MATCH(N3,B:B,1)-1,0,2), OFFSET(B:B,MATCH(N3,B:B,1)-1,0,2))</f>
+        <v>9.0243939393939403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>9.0150000000000006</v>
       </c>
       <c r="B4" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="K4" s="5"/>
+      <c r="N4" s="2">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0244405594405599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>9.0220000000000002</v>
       </c>
       <c r="B5" s="2">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="K5" s="5"/>
+      <c r="N5" s="2">
+        <v>43</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0244871794871795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>9.0229999999999997</v>
       </c>
       <c r="B6" s="2">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="K6" s="5"/>
+      <c r="N6" s="2">
+        <v>44</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0245337995338009</v>
+      </c>
+      <c r="P6" s="7">
+        <v>9.0244999999999997</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>9.0250000000000004</v>
       </c>
       <c r="B7" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="K7" s="5"/>
+      <c r="N7" s="2">
+        <v>45</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0245804195804205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>9.0259999999999998</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="N8" s="2">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.02462703962704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>9.0259999999999998</v>
       </c>
       <c r="B9" s="2">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="K9" s="5"/>
+      <c r="N9" s="2">
+        <v>47</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0246736596736596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9.0280000000000005</v>
       </c>
       <c r="B10" s="2">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="K10" s="5"/>
+      <c r="N10" s="2">
+        <v>48</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.024720279720281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9.0289999999999999</v>
       </c>
       <c r="B11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="K11" s="5"/>
+      <c r="N11" s="2">
+        <v>49</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0247668997669006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>9.0299999999999994</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="K12" s="5"/>
+      <c r="N12" s="2">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0248135198135202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>9.0340000000000007</v>
       </c>
       <c r="B13" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>9.0389999999999997</v>
       </c>
       <c r="B14" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="K14" s="5"/>
+      <c r="N14" s="2">
+        <v>44</v>
+      </c>
+      <c r="O14">
+        <f ca="1">FORECAST(N14,OFFSET(A8:A15,MATCH(N14,B8:B15,-1)-1,0,2), OFFSET(B8:B15,MATCH(N14,B8:B15,-1)-1,0,2))</f>
+        <v>9.0271805929919147</v>
+      </c>
+      <c r="P14" s="7">
+        <v>9.0272000000000006</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>9.0449999999999999</v>
       </c>
       <c r="B15" s="2">
         <v>2.2999999999999998</v>
       </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+      <c r="N19" s="7">
+        <f ca="1">A8/(O14-O6)</f>
+        <v>3410.1640882973293</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8006,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.4000000000000021E-2</v>
       </c>
@@ -8017,7 +8342,7 @@
         <v>9.0280000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0149999999999999</v>
       </c>
@@ -8028,7 +8353,7 @@
         <v>9.0259999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.2969999999999999</v>
       </c>
@@ -8039,7 +8364,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.3660000000000001</v>
       </c>
@@ -8049,8 +8374,15 @@
       <c r="C5" s="3">
         <v>9.0280000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(B19,B2:B6)</f>
+        <v>75.416666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.421</v>
       </c>
@@ -8060,8 +8392,15 @@
       <c r="C6" s="3">
         <v>9.0299999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <f>MIN(B2:B19)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.5070000000000001</v>
       </c>
@@ -8071,8 +8410,15 @@
       <c r="C7" s="3">
         <v>9.0269999999999992</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <f>4*J5/(SQRT(J5/J6)+1)^2</f>
+        <v>52.785482655174356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.5310000000000001</v>
       </c>
@@ -8083,7 +8429,7 @@
         <v>9.0259999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5620000000000001</v>
       </c>
@@ -8093,8 +8439,16 @@
       <c r="C9" s="3">
         <v>9.0310000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I9" s="9">
+        <f ca="1">FORECAST(J7,OFFSET(A2:A12,MATCH(J7,B2:B12,-1)-1,0,2), OFFSET(B2:B12,MATCH(J7,B2:B12,-1)-1,0,2))</f>
+        <v>1.5549019156789279</v>
+      </c>
+      <c r="K9" s="7">
+        <f ca="1">FORECAST(I9,OFFSET(Sheet6!B$2:B$25,MATCH(I9,Sheet6!A$2:A$25,1)-1,0,2), OFFSET(Sheet6!A$2:A$25,MATCH(I9,Sheet6!A$2:A$25,1)-1,0,2))</f>
+        <v>305.61853012344147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.579</v>
       </c>
@@ -8104,8 +8458,19 @@
       <c r="C10" s="3">
         <v>9.032</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I10" s="9">
+        <f ca="1">FORECAST(J7,OFFSET(A12:A19,MATCH(J7,B12:B19,1)-1,0,2), OFFSET(B12:B19,MATCH(J7,B12:B19,1)-1,0,2))</f>
+        <v>1.7083507362536556</v>
+      </c>
+      <c r="K10" s="7">
+        <f ca="1">FORECAST(I10,OFFSET(Sheet6!B$2:B$25,MATCH(I10,Sheet6!A$2:A$25,1)-1,0,2), OFFSET(Sheet6!A$2:A$25,MATCH(I10,Sheet6!A$2:A$25,1)-1,0,2))</f>
+        <v>333.02598900925096</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.5960000000000001</v>
       </c>
@@ -8115,8 +8480,20 @@
       <c r="C11" s="3">
         <v>9.0259999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I11" s="10">
+        <f ca="1">I10-I9</f>
+        <v>0.15344882057472775</v>
+      </c>
+      <c r="K11">
+        <f ca="1">K10-K9</f>
+        <v>27.40745888580949</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.6139999999999999</v>
       </c>
@@ -8126,8 +8503,9 @@
       <c r="C12" s="3">
         <v>9.0269999999999992</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.6619999999999999</v>
       </c>
@@ -8137,8 +8515,9 @@
       <c r="C13" s="3">
         <v>9.0259999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.679</v>
       </c>
@@ -8148,8 +8527,9 @@
       <c r="C14" s="3">
         <v>9.0259999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.698</v>
       </c>
@@ -8159,8 +8539,9 @@
       <c r="C15" s="3">
         <v>9.0289999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.716</v>
       </c>
@@ -8170,8 +8551,9 @@
       <c r="C16" s="3">
         <v>9.0289999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.7629999999999999</v>
       </c>
@@ -8181,8 +8563,9 @@
       <c r="C17" s="3">
         <v>9.0289999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.802</v>
       </c>
@@ -8192,8 +8575,9 @@
       <c r="C18" s="3">
         <v>9.0259999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.089</v>
       </c>
@@ -8202,6 +8586,64 @@
       </c>
       <c r="C19" s="3">
         <v>9.0299999999999994</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f>A10</f>
+        <v>1.579</v>
+      </c>
+      <c r="K28" s="8">
+        <f ca="1">FORECAST(I28,OFFSET(Sheet6!B$2:B$25,MATCH(I28,Sheet6!A$2:A$25,1)-1,0,2), OFFSET(Sheet6!A$2:A$25,MATCH(I28,Sheet6!A$2:A$25,1)-1,0,2))</f>
+        <v>310.00000000000006</v>
+      </c>
+      <c r="L28" s="11">
+        <f ca="1">C10/K28*1000000000*2*PI()</f>
+        <v>183063644.1756323</v>
+      </c>
+      <c r="M28">
+        <f ca="1">2*9.1E-31*L28/4/PI()*10000/1.602E-19</f>
+        <v>1.6550118803109013</v>
+      </c>
+      <c r="N28" s="11">
+        <f ca="1">1/L28/K11/4/PI()*10000000</f>
+        <v>1.5860587172976872E-4</v>
       </c>
     </row>
   </sheetData>
@@ -8216,7 +8658,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
